--- a/journalentry/Content/uploads/JE SpreadsheetTest.xlsx
+++ b/journalentry/Content/uploads/JE SpreadsheetTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njohnson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njohnson\Documents\Work Docs\Projects\Journal Entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
-    <t>JE PG 06-012345</t>
-  </si>
-  <si>
-    <t>06-40-0760.032</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>GL</t>
   </si>
@@ -66,6 +54,15 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>isi</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,63 +403,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>43262</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>69.930000000000007</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
